--- a/2 Data Analytics/2 Regressao Linear Multipla/base_regressao_salarios.xlsx
+++ b/2 Data Analytics/2 Regressao Linear Multipla/base_regressao_salarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinicius/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_\Desktop\Modal_DS\Curso-Data-Analytics---Preditiva.ai\2 Data Analytics\2 Regressao Linear Multipla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21D1877-70DA-724E-8AC1-4711F7BE9415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEBB3E-524E-4310-8041-4F5EB2EED625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados1" sheetId="8" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
   <si>
     <t>Salario</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>Salario Real</t>
   </si>
 </sst>
 </file>
@@ -271,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,24 +303,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1088,7 +1073,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Salario</c:v>
+                  <c:v>Salario Real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4096,21 +4081,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17"/>
+    <row r="1" spans="1:39" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
@@ -4120,44 +4105,44 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -4167,44 +4152,44 @@
       <c r="D2" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -4214,44 +4199,44 @@
       <c r="D3" s="10">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -4261,44 +4246,44 @@
       <c r="D4" s="10">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -4308,44 +4293,44 @@
       <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
@@ -4355,44 +4340,44 @@
       <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
@@ -4402,44 +4387,44 @@
       <c r="D7" s="10">
         <v>5</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
@@ -4449,44 +4434,44 @@
       <c r="D8" s="10">
         <v>4</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
@@ -4496,44 +4481,44 @@
       <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -4543,44 +4528,44 @@
       <c r="D10" s="10">
         <v>9</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
@@ -4590,44 +4575,44 @@
       <c r="D11" s="10">
         <v>6</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="8">
         <v>11</v>
       </c>
@@ -4637,44 +4622,44 @@
       <c r="D12" s="10">
         <v>4</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="8">
         <v>12</v>
       </c>
@@ -4684,44 +4669,44 @@
       <c r="D13" s="10">
         <v>6</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="8">
         <v>13</v>
       </c>
@@ -4731,44 +4716,44 @@
       <c r="D14" s="10">
         <v>6</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="8">
         <v>14</v>
       </c>
@@ -4778,44 +4763,44 @@
       <c r="D15" s="10">
         <v>9</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="8">
         <v>15</v>
       </c>
@@ -4825,44 +4810,44 @@
       <c r="D16" s="10">
         <v>4</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="8">
         <v>16</v>
       </c>
@@ -4872,44 +4857,44 @@
       <c r="D17" s="10">
         <v>12</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="8">
         <v>17</v>
       </c>
@@ -4919,44 +4904,44 @@
       <c r="D18" s="10">
         <v>2</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="8">
         <v>18</v>
       </c>
@@ -4966,44 +4951,44 @@
       <c r="D19" s="10">
         <v>6</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="8">
         <v>19</v>
       </c>
@@ -5013,44 +4998,44 @@
       <c r="D20" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="8">
         <v>20</v>
       </c>
@@ -5060,44 +5045,44 @@
       <c r="D21" s="10">
         <v>4</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="8">
         <v>21</v>
       </c>
@@ -5107,44 +5092,44 @@
       <c r="D22" s="10">
         <v>4</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="8">
         <v>22</v>
       </c>
@@ -5154,44 +5139,44 @@
       <c r="D23" s="10">
         <v>6</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="8">
         <v>23</v>
       </c>
@@ -5201,44 +5186,44 @@
       <c r="D24" s="10">
         <v>2</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="8">
         <v>24</v>
       </c>
@@ -5248,44 +5233,44 @@
       <c r="D25" s="10">
         <v>10</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="8">
         <v>25</v>
       </c>
@@ -5295,44 +5280,44 @@
       <c r="D26" s="10">
         <v>8</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
       <c r="B27" s="8">
         <v>26</v>
       </c>
@@ -5342,44 +5327,44 @@
       <c r="D27" s="10">
         <v>0</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="8">
         <v>27</v>
       </c>
@@ -5389,44 +5374,44 @@
       <c r="D28" s="10">
         <v>7</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="8">
         <v>28</v>
       </c>
@@ -5436,44 +5421,44 @@
       <c r="D29" s="10">
         <v>8</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="8">
         <v>29</v>
       </c>
@@ -5483,44 +5468,44 @@
       <c r="D30" s="10">
         <v>0</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="8">
         <v>30</v>
       </c>
@@ -5530,44 +5515,44 @@
       <c r="D31" s="10">
         <v>4</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="17"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="8">
         <v>31</v>
       </c>
@@ -5577,44 +5562,44 @@
       <c r="D32" s="10">
         <v>6</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
       <c r="B33" s="8">
         <v>32</v>
       </c>
@@ -5624,44 +5609,44 @@
       <c r="D33" s="10">
         <v>6</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
       <c r="B34" s="8">
         <v>33</v>
       </c>
@@ -5671,44 +5656,44 @@
       <c r="D34" s="10">
         <v>6</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
       <c r="B35" s="8">
         <v>34</v>
       </c>
@@ -5718,44 +5703,44 @@
       <c r="D35" s="10">
         <v>3</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
       <c r="B36" s="8">
         <v>35</v>
       </c>
@@ -5765,44 +5750,44 @@
       <c r="D36" s="10">
         <v>7</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
       <c r="B37" s="8">
         <v>36</v>
       </c>
@@ -5812,44 +5797,44 @@
       <c r="D37" s="10">
         <v>8</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
       <c r="B38" s="8">
         <v>37</v>
       </c>
@@ -5859,44 +5844,44 @@
       <c r="D38" s="10">
         <v>5</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
       <c r="B39" s="8">
         <v>38</v>
       </c>
@@ -5906,44 +5891,44 @@
       <c r="D39" s="10">
         <v>2</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="17"/>
-      <c r="AI39" s="17"/>
-      <c r="AJ39" s="17"/>
-      <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
-      <c r="AM39" s="17"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
       <c r="B40" s="8">
         <v>39</v>
       </c>
@@ -5953,44 +5938,44 @@
       <c r="D40" s="10">
         <v>5</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="17"/>
-      <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
       <c r="B41" s="8">
         <v>40</v>
       </c>
@@ -6000,44 +5985,44 @@
       <c r="D41" s="10">
         <v>4</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
       <c r="B42" s="8">
         <v>41</v>
       </c>
@@ -6047,44 +6032,44 @@
       <c r="D42" s="10">
         <v>4</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="17"/>
-      <c r="AJ42" s="17"/>
-      <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
-      <c r="AM42" s="17"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
       <c r="B43" s="8">
         <v>42</v>
       </c>
@@ -6094,44 +6079,44 @@
       <c r="D43" s="10">
         <v>5</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
-      <c r="AG43" s="17"/>
-      <c r="AH43" s="17"/>
-      <c r="AI43" s="17"/>
-      <c r="AJ43" s="17"/>
-      <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
-      <c r="AM43" s="17"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
       <c r="B44" s="8">
         <v>43</v>
       </c>
@@ -6141,44 +6126,44 @@
       <c r="D44" s="10">
         <v>8</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="17"/>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="17"/>
-      <c r="AG44" s="17"/>
-      <c r="AH44" s="17"/>
-      <c r="AI44" s="17"/>
-      <c r="AJ44" s="17"/>
-      <c r="AK44" s="17"/>
-      <c r="AL44" s="17"/>
-      <c r="AM44" s="17"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
       <c r="B45" s="8">
         <v>44</v>
       </c>
@@ -6188,44 +6173,44 @@
       <c r="D45" s="10">
         <v>1</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="17"/>
-      <c r="AH45" s="17"/>
-      <c r="AI45" s="17"/>
-      <c r="AJ45" s="17"/>
-      <c r="AK45" s="17"/>
-      <c r="AL45" s="17"/>
-      <c r="AM45" s="17"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
       <c r="B46" s="8">
         <v>45</v>
       </c>
@@ -6235,44 +6220,44 @@
       <c r="D46" s="10">
         <v>4</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17"/>
-      <c r="AD46" s="17"/>
-      <c r="AE46" s="17"/>
-      <c r="AF46" s="17"/>
-      <c r="AG46" s="17"/>
-      <c r="AH46" s="17"/>
-      <c r="AI46" s="17"/>
-      <c r="AJ46" s="17"/>
-      <c r="AK46" s="17"/>
-      <c r="AL46" s="17"/>
-      <c r="AM46" s="17"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
       <c r="B47" s="8">
         <v>46</v>
       </c>
@@ -6282,369 +6267,369 @@
       <c r="D47" s="10">
         <v>12</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="17"/>
-      <c r="AD47" s="17"/>
-      <c r="AE47" s="17"/>
-      <c r="AF47" s="17"/>
-      <c r="AG47" s="17"/>
-      <c r="AH47" s="17"/>
-      <c r="AI47" s="17"/>
-      <c r="AJ47" s="17"/>
-      <c r="AK47" s="17"/>
-      <c r="AL47" s="17"/>
-      <c r="AM47" s="17"/>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="17"/>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="17"/>
-      <c r="AG48" s="17"/>
-      <c r="AH48" s="17"/>
-      <c r="AI48" s="17"/>
-      <c r="AJ48" s="17"/>
-      <c r="AK48" s="17"/>
-      <c r="AL48" s="17"/>
-      <c r="AM48" s="17"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17"/>
-      <c r="AC49" s="17"/>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
-      <c r="AG49" s="17"/>
-      <c r="AH49" s="17"/>
-      <c r="AI49" s="17"/>
-      <c r="AJ49" s="17"/>
-      <c r="AK49" s="17"/>
-      <c r="AL49" s="17"/>
-      <c r="AM49" s="17"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
-      <c r="AG50" s="17"/>
-      <c r="AH50" s="17"/>
-      <c r="AI50" s="17"/>
-      <c r="AJ50" s="17"/>
-      <c r="AK50" s="17"/>
-      <c r="AL50" s="17"/>
-      <c r="AM50" s="17"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="17"/>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="17"/>
-      <c r="AK51" s="17"/>
-      <c r="AL51" s="17"/>
-      <c r="AM51" s="17"/>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
-      <c r="AG52" s="17"/>
-      <c r="AH52" s="17"/>
-      <c r="AI52" s="17"/>
-      <c r="AJ52" s="17"/>
-      <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
-      <c r="AM52" s="17"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="17"/>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="17"/>
-      <c r="AG53" s="17"/>
-      <c r="AH53" s="17"/>
-      <c r="AI53" s="17"/>
-      <c r="AJ53" s="17"/>
-      <c r="AK53" s="17"/>
-      <c r="AL53" s="17"/>
-      <c r="AM53" s="17"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="17"/>
-      <c r="AC54" s="17"/>
-      <c r="AD54" s="17"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="17"/>
-      <c r="AG54" s="17"/>
-      <c r="AH54" s="17"/>
-      <c r="AI54" s="17"/>
-      <c r="AJ54" s="17"/>
-      <c r="AK54" s="17"/>
-      <c r="AL54" s="17"/>
-      <c r="AM54" s="17"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17"/>
-      <c r="AC55" s="17"/>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
-      <c r="AG55" s="17"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="17"/>
-      <c r="AJ55" s="17"/>
-      <c r="AK55" s="17"/>
-      <c r="AL55" s="17"/>
-      <c r="AM55" s="17"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
@@ -6657,23 +6642,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
@@ -6681,7 +6666,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
@@ -6690,676 +6675,957 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="10">
         <v>3</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="14">
         <v>5517.4</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E2" s="14">
+        <f>$J$6+$J$10*C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <f>(D2-E2)*(D2-E2)</f>
+        <v>30441702.759999994</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="10">
         <v>4</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="14">
         <v>6399.9249999999993</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E47" si="0">$J$6+$J$10*C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F47" si="1">(D3-E3)*(D3-E3)</f>
+        <v>40959040.005624987</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" s="10">
         <v>6</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="14">
         <v>6206.7249999999995</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E4" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="1"/>
+        <v>38523435.225624993</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>4</v>
       </c>
       <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="14">
         <v>6060.5999999999995</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="1"/>
+        <v>36730872.359999992</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>5</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="14">
         <v>6122.7249999999995</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="H6" s="25" t="s">
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="1"/>
+        <v>37487761.425624996</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="20"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="14">
         <v>6955.0249999999996</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="1"/>
+        <v>48372372.750624992</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>7</v>
       </c>
       <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="14">
         <v>7642.95</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="1"/>
+        <v>58414684.702500001</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>8</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="14">
         <v>6210.2249999999995</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>38566894.550624996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>9</v>
       </c>
       <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="14">
         <v>5761</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="H10" s="31" t="s">
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>33189121</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="26"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>10</v>
       </c>
       <c r="C11" s="10">
         <v>6</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="14">
         <v>8086.9249999999993</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="1"/>
+        <v>65398355.95562499</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>11</v>
       </c>
       <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="14">
         <v>6375.4249999999993</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>40646043.930624992</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>12</v>
       </c>
       <c r="C13" s="10">
         <v>6</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="14">
         <v>9568.8249999999989</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>91562411.88062498</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>13</v>
       </c>
       <c r="C14" s="10">
         <v>6</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="14">
         <v>9315.9499999999989</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="1"/>
+        <v>86786924.402499974</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>14</v>
       </c>
       <c r="C15" s="10">
         <v>9</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="14">
         <v>6822.375</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="1"/>
+        <v>46544800.640625</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>15</v>
       </c>
       <c r="C16" s="10">
         <v>4</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="14">
         <v>6570.9</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="1"/>
+        <v>43176726.809999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>16</v>
       </c>
       <c r="C17" s="10">
         <v>12</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="14">
         <v>11974.375</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="H17" s="21" t="s">
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="1"/>
+        <v>143385656.640625</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>17</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="14">
         <v>4651.1499999999996</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="1"/>
+        <v>21633196.322499998</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>18</v>
       </c>
       <c r="C19" s="10">
         <v>6</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="14">
         <v>8318.7999999999993</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="1"/>
+        <v>69202433.439999983</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>19</v>
       </c>
       <c r="C20" s="10">
         <v>0</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="14">
         <v>4331.0749999999998</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="1"/>
+        <v>18758210.655624997</v>
+      </c>
+      <c r="H20" s="16">
+        <f>SUM($F$2:$F$47)</f>
+        <v>2401319171.1774993</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>20</v>
       </c>
       <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="14">
         <v>5072.375</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-    </row>
-    <row r="22" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="1"/>
+        <v>25728988.140625</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>21</v>
       </c>
       <c r="C22" s="10">
         <v>4</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="14">
         <v>6389.5999999999995</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="1"/>
+        <v>40826988.159999996</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>22</v>
       </c>
       <c r="C23" s="10">
         <v>6</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="14">
         <v>9047.15</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="1"/>
+        <v>81850923.122499987</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>23</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="14">
         <v>6385.2249999999995</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="1"/>
+        <v>40771098.300624996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>24</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="14">
         <v>12118.05</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="1"/>
+        <v>146847135.80249998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>25</v>
       </c>
       <c r="C26" s="10">
         <v>8</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="14">
         <v>9607.3249999999989</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="1"/>
+        <v>92300693.655624986</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>26</v>
       </c>
       <c r="C27" s="10">
         <v>0</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="14">
         <v>4645.8999999999996</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="1"/>
+        <v>21584386.809999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>27</v>
       </c>
       <c r="C28" s="10">
         <v>7</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="14">
         <v>5736.8499999999995</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" si="1"/>
+        <v>32911447.922499992</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>28</v>
       </c>
       <c r="C29" s="10">
         <v>8</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="14">
         <v>6401.15</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E29" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="1"/>
+        <v>40974721.322499998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>29</v>
       </c>
       <c r="C30" s="10">
         <v>0</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="14">
         <v>4139.45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="1"/>
+        <v>17135046.302499998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>30</v>
       </c>
       <c r="C31" s="10">
         <v>4</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="14">
         <v>6102.0749999999998</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E31" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="1"/>
+        <v>37235319.305624999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>31</v>
       </c>
       <c r="C32" s="10">
         <v>6</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="14">
         <v>7219.6249999999991</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="1"/>
+        <v>52122985.140624985</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <v>32</v>
       </c>
       <c r="C33" s="10">
         <v>6</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="14">
         <v>5990.4249999999993</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="1"/>
+        <v>35885191.680624992</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>33</v>
       </c>
       <c r="C34" s="10">
         <v>6</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="14">
         <v>6882.9249999999993</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="1"/>
+        <v>47374656.555624992</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>34</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="14">
         <v>5228.2999999999993</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="1"/>
+        <v>27335120.889999993</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>35</v>
       </c>
       <c r="C36" s="10">
         <v>7</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="14">
         <v>7330.5749999999998</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="1"/>
+        <v>53737329.830624998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>36</v>
       </c>
       <c r="C37" s="10">
         <v>8</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="14">
         <v>9857.0499999999993</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="1"/>
+        <v>97161434.702499986</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>37</v>
       </c>
       <c r="C38" s="10">
         <v>5</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="14">
         <v>6788.4249999999993</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="1"/>
+        <v>46082713.980624989</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>38</v>
       </c>
       <c r="C39" s="10">
         <v>2</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="14">
         <v>4629.0999999999995</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="1"/>
+        <v>21428566.809999995</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>39</v>
       </c>
       <c r="C40" s="10">
         <v>5</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="14">
         <v>6969.9</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="1"/>
+        <v>48579506.009999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <v>40</v>
       </c>
       <c r="C41" s="10">
         <v>4</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="14">
         <v>8082.2</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E41" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="1"/>
+        <v>65321956.839999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>41</v>
       </c>
       <c r="C42" s="10">
         <v>4</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="14">
         <v>6206.9</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="1"/>
+        <v>38525607.609999992</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>42</v>
       </c>
       <c r="C43" s="10">
         <v>5</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="14">
         <v>5499.375</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="1"/>
+        <v>30243125.390625</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>43</v>
       </c>
       <c r="C44" s="10">
         <v>8</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="14">
         <v>8521.625</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E44" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="1"/>
+        <v>72618092.640625</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>44</v>
       </c>
       <c r="C45" s="10">
         <v>1</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="14">
         <v>5170.8999999999996</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="1"/>
+        <v>26738206.809999995</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
         <v>45</v>
       </c>
       <c r="C46" s="10">
         <v>4</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="14">
         <v>6235.4249999999993</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="1"/>
+        <v>38880524.930624992</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>46</v>
       </c>
       <c r="C47" s="10">
         <v>12</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="14">
         <v>11460.224999999999</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="E47" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="1"/>
+        <v>131336757.05062497</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="H17:L18"/>
     <mergeCell ref="H20:L22"/>
     <mergeCell ref="H3:K4"/>
     <mergeCell ref="H6:I8"/>
     <mergeCell ref="H10:I12"/>
+    <mergeCell ref="J6:K8"/>
+    <mergeCell ref="J10:K12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7376,18 +7642,18 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="5" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7405,7 +7671,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>29</v>
       </c>
@@ -7423,7 +7689,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>19</v>
       </c>
@@ -7441,7 +7707,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>38</v>
       </c>
@@ -7459,7 +7725,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>26</v>
       </c>
@@ -7477,7 +7743,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>17</v>
       </c>
@@ -7495,7 +7761,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>20</v>
       </c>
@@ -7513,7 +7779,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44</v>
       </c>
@@ -7531,7 +7797,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>34</v>
       </c>
@@ -7549,7 +7815,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>42</v>
       </c>
@@ -7567,7 +7833,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -7585,7 +7851,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>27</v>
       </c>
@@ -7603,7 +7869,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -7621,7 +7887,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>32</v>
       </c>
@@ -7639,7 +7905,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>4</v>
       </c>
@@ -7657,7 +7923,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>30</v>
       </c>
@@ -7675,7 +7941,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -7693,7 +7959,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>3</v>
       </c>
@@ -7711,7 +7977,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>41</v>
       </c>
@@ -7729,7 +7995,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>8</v>
       </c>
@@ -7747,7 +8013,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>45</v>
       </c>
@@ -7765,7 +8031,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>11</v>
       </c>
@@ -7783,7 +8049,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>23</v>
       </c>
@@ -7801,7 +8067,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -7819,7 +8085,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>2</v>
       </c>
@@ -7837,7 +8103,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>28</v>
       </c>
@@ -7855,7 +8121,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>15</v>
       </c>
@@ -7873,7 +8139,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>37</v>
       </c>
@@ -7891,7 +8157,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>14</v>
       </c>
@@ -7909,7 +8175,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>33</v>
       </c>
@@ -7927,7 +8193,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>6</v>
       </c>
@@ -7945,7 +8211,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>39</v>
       </c>
@@ -7963,7 +8229,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -7981,7 +8247,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>35</v>
       </c>
@@ -7999,7 +8265,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>7</v>
       </c>
@@ -8017,7 +8283,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>40</v>
       </c>
@@ -8035,7 +8301,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>10</v>
       </c>
@@ -8053,7 +8319,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>18</v>
       </c>
@@ -8071,7 +8337,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>43</v>
       </c>
@@ -8089,7 +8355,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>22</v>
       </c>
@@ -8107,7 +8373,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>13</v>
       </c>
@@ -8125,7 +8391,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>12</v>
       </c>
@@ -8143,7 +8409,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>25</v>
       </c>
@@ -8161,7 +8427,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>36</v>
       </c>
@@ -8179,7 +8445,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>46</v>
       </c>
@@ -8197,7 +8463,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>16</v>
       </c>
@@ -8215,7 +8481,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>24</v>
       </c>
@@ -8252,18 +8518,18 @@
       <selection activeCell="G1" activeCellId="1" sqref="B1:E1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -8286,7 +8552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>29</v>
       </c>
@@ -8309,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -8332,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38</v>
       </c>
@@ -8355,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>26</v>
       </c>
@@ -8378,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -8401,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -8424,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44</v>
       </c>
@@ -8447,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>34</v>
       </c>
@@ -8470,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42</v>
       </c>
@@ -8493,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -8516,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>27</v>
       </c>
@@ -8539,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -8562,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>32</v>
       </c>
@@ -8585,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -8608,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -8631,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -8654,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -8677,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41</v>
       </c>
@@ -8700,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -8723,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45</v>
       </c>
@@ -8746,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -8769,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -8792,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8815,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -8838,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>28</v>
       </c>
@@ -8861,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -8884,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37</v>
       </c>
@@ -8907,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -8930,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>33</v>
       </c>
@@ -8953,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -8976,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39</v>
       </c>
@@ -8999,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9022,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -9045,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -9068,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40</v>
       </c>
@@ -9091,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -9114,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>18</v>
       </c>
@@ -9137,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43</v>
       </c>
@@ -9160,7 +9426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>22</v>
       </c>
@@ -9183,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -9206,7 +9472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>12</v>
       </c>
@@ -9229,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>25</v>
       </c>
@@ -9252,7 +9518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>36</v>
       </c>
@@ -9275,7 +9541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -9298,7 +9564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>16</v>
       </c>
@@ -9321,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>24</v>
       </c>

--- a/2 Data Analytics/2 Regressao Linear Multipla/base_regressao_salarios.xlsx
+++ b/2 Data Analytics/2 Regressao Linear Multipla/base_regressao_salarios.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_\Desktop\Modal_DS\Curso-Data-Analytics---Preditiva.ai\2 Data Analytics\2 Regressao Linear Multipla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEBB3E-524E-4310-8041-4F5EB2EED625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774AB93-3A71-4321-AB2F-82601E3B784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados1" sheetId="8" r:id="rId1"/>
     <sheet name="Equação da Reta" sheetId="7" r:id="rId2"/>
-    <sheet name="Dados2" sheetId="1" r:id="rId3"/>
-    <sheet name="Dados3" sheetId="10" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="11" r:id="rId3"/>
+    <sheet name="Dados2" sheetId="1" r:id="rId4"/>
+    <sheet name="Dados3" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dados2!$B$1:$F$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dados3!$A$1:$E$47</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Equação da Reta'!$J$7,'Equação da Reta'!$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dados2!$B$1:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Dados3!$A$1:$E$47</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Equação da Reta'!$J$6,'Equação da Reta'!$J$10</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>Salario</t>
   </si>
@@ -117,6 +118,78 @@
   <si>
     <t>Salario Real</t>
   </si>
+  <si>
+    <t>RESUMO DOS RESULTADOS</t>
+  </si>
+  <si>
+    <t>Estatística de regressão</t>
+  </si>
+  <si>
+    <t>R múltiplo</t>
+  </si>
+  <si>
+    <t>R-Quadrado</t>
+  </si>
+  <si>
+    <t>R-quadrado ajustado</t>
+  </si>
+  <si>
+    <t>Erro padrão</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regressão</t>
+  </si>
+  <si>
+    <t>Resíduo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Interseção</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F de significação</t>
+  </si>
+  <si>
+    <t>Coeficientes</t>
+  </si>
+  <si>
+    <t>Stat t</t>
+  </si>
+  <si>
+    <t>valor-P</t>
+  </si>
+  <si>
+    <t>95% inferiores</t>
+  </si>
+  <si>
+    <t>95% superiores</t>
+  </si>
+  <si>
+    <t>Inferior 95,0%</t>
+  </si>
+  <si>
+    <t>Superior 95,0%</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +199,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -157,6 +230,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -184,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -269,12 +348,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,10 +432,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -359,6 +497,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1111,13 +1257,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17449825021872267"/>
-                  <c:y val="-0.26466426071741034"/>
+                  <c:x val="-0.12007708324581218"/>
+                  <c:y val="-8.6973965483735483E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1149,20 +1295,6 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -4081,7 +4213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -6642,8 +6774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6653,7 +6785,7 @@
     <col min="3" max="3" width="15.109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.77734375" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
@@ -6687,11 +6819,11 @@
       </c>
       <c r="E2" s="14">
         <f>$J$6+$J$10*C2</f>
-        <v>0</v>
+        <v>5881.99</v>
       </c>
       <c r="F2" s="14">
         <f>(D2-E2)*(D2-E2)</f>
-        <v>30441702.759999994</v>
+        <v>132925.86810000011</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -6706,18 +6838,18 @@
       </c>
       <c r="E3" s="14">
         <f t="shared" ref="E3:E47" si="0">$J$6+$J$10*C3</f>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" ref="F3:F47" si="1">(D3-E3)*(D3-E3)</f>
-        <v>40959040.005624987</v>
-      </c>
-      <c r="H3" s="18" t="s">
+        <v>77.352025000017278</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
@@ -6731,16 +6863,16 @@
       </c>
       <c r="E4" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7462.18</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" si="1"/>
-        <v>38523435.225624993</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+        <v>1576167.257025002</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
@@ -6754,11 +6886,11 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>36730872.359999992</v>
+        <v>121187.53440000056</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6773,18 +6905,20 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5355.26</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="1"/>
-        <v>37487761.425624996</v>
-      </c>
-      <c r="H6" s="19" t="s">
+        <v>589002.52622499887</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="16">
+        <v>4301.8</v>
+      </c>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
@@ -6798,16 +6932,16 @@
       </c>
       <c r="E7" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6935.4500000000007</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="1"/>
-        <v>48372372.750624992</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
+        <v>383.18062499995727</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
@@ -6821,16 +6955,16 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="1"/>
-        <v>58414684.702500001</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
+        <v>1523323.692899999</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
@@ -6844,11 +6978,11 @@
       </c>
       <c r="E9" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5355.26</v>
       </c>
       <c r="F9" s="14">
         <f t="shared" si="1"/>
-        <v>38566894.550624996</v>
+        <v>730965.15122499864</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6863,18 +6997,20 @@
       </c>
       <c r="E10" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9042.369999999999</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="1"/>
-        <v>33189121</v>
-      </c>
-      <c r="H10" s="25" t="s">
+        <v>10767389.076899994</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="16">
+        <v>526.73</v>
+      </c>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
@@ -6888,16 +7024,16 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7462.18</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" si="1"/>
-        <v>65398355.95562499</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
+        <v>390306.31502499874</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
@@ -6911,16 +7047,16 @@
       </c>
       <c r="E12" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="1"/>
-        <v>40646043.930624992</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
+        <v>1108.5570250000653</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
@@ -6934,11 +7070,11 @@
       </c>
       <c r="E13" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7462.18</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="1"/>
-        <v>91562411.88062498</v>
+        <v>4437953.1560249943</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -6953,11 +7089,11 @@
       </c>
       <c r="E14" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7462.18</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="1"/>
-        <v>86786924.402499974</v>
+        <v>3436463.212899995</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -6972,11 +7108,11 @@
       </c>
       <c r="E15" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9042.369999999999</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" si="1"/>
-        <v>46544800.640625</v>
+        <v>4928377.8000249956</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -6991,11 +7127,11 @@
       </c>
       <c r="E16" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="1"/>
-        <v>43176726.809999995</v>
+        <v>26302.3523999998</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7010,11 +7146,11 @@
       </c>
       <c r="E17" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10622.560000000001</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="1"/>
-        <v>143385656.640625</v>
+        <v>1827403.7942249964</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>10</v>
@@ -7036,11 +7172,11 @@
       </c>
       <c r="E18" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5355.26</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="1"/>
-        <v>21633196.322499998</v>
+        <v>495770.89210000081</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -7060,11 +7196,11 @@
       </c>
       <c r="E19" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7462.18</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="1"/>
-        <v>69202433.439999983</v>
+        <v>733797.8243999983</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -7079,20 +7215,20 @@
       </c>
       <c r="E20" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4301.8</v>
       </c>
       <c r="F20" s="14">
         <f t="shared" si="1"/>
-        <v>18758210.655624997</v>
+        <v>857.02562499997873</v>
       </c>
       <c r="H20" s="16">
         <f>SUM($F$2:$F$47)</f>
-        <v>2401319171.1774993</v>
+        <v>66072646.651699983</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
@@ -7106,17 +7242,17 @@
       </c>
       <c r="E21" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F21" s="14">
         <f t="shared" si="1"/>
-        <v>25728988.140625</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+        <v>1785817.9590250007</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
@@ -7130,17 +7266,17 @@
       </c>
       <c r="E22" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="1"/>
-        <v>40826988.159999996</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+        <v>365.57440000003061</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
@@ -7154,11 +7290,11 @@
       </c>
       <c r="E23" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7462.18</v>
       </c>
       <c r="F23" s="14">
         <f t="shared" si="1"/>
-        <v>81850923.122499987</v>
+        <v>2512129.9008999979</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -7173,11 +7309,11 @@
       </c>
       <c r="E24" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5355.26</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" si="1"/>
-        <v>40771098.300624996</v>
+        <v>1060827.9012249985</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -7192,11 +7328,11 @@
       </c>
       <c r="E25" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9569.1</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" si="1"/>
-        <v>146847135.80249998</v>
+        <v>6497146.1024999944</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -7211,11 +7347,11 @@
       </c>
       <c r="E26" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8515.64</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="1"/>
-        <v>92300693.655624986</v>
+        <v>1191776.1392249989</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -7230,11 +7366,11 @@
       </c>
       <c r="E27" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4301.8</v>
       </c>
       <c r="F27" s="14">
         <f t="shared" si="1"/>
-        <v>21584386.809999995</v>
+        <v>118404.80999999962</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -7249,11 +7385,11 @@
       </c>
       <c r="E28" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7988.91</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="1"/>
-        <v>32911447.922499992</v>
+        <v>5071774.2436000016</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -7268,11 +7404,11 @@
       </c>
       <c r="E29" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8515.64</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" si="1"/>
-        <v>40974721.322499998</v>
+        <v>4471067.9600999989</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -7287,11 +7423,11 @@
       </c>
       <c r="E30" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4301.8</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="1"/>
-        <v>17135046.302499998</v>
+        <v>26357.522500000119</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -7306,11 +7442,11 @@
       </c>
       <c r="E31" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="1"/>
-        <v>37235319.305624999</v>
+        <v>94031.156025000266</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -7325,11 +7461,11 @@
       </c>
       <c r="E32" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7462.18</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" si="1"/>
-        <v>52122985.140624985</v>
+        <v>58832.928025000583</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -7344,11 +7480,11 @@
       </c>
       <c r="E33" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7462.18</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="1"/>
-        <v>35885191.680624992</v>
+        <v>2166062.780025003</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -7363,11 +7499,11 @@
       </c>
       <c r="E34" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7462.18</v>
       </c>
       <c r="F34" s="14">
         <f t="shared" si="1"/>
-        <v>47374656.555624992</v>
+        <v>335536.35502500116</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -7382,11 +7518,11 @@
       </c>
       <c r="E35" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5881.99</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="1"/>
-        <v>27335120.889999993</v>
+        <v>427310.61610000068</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -7401,11 +7537,11 @@
       </c>
       <c r="E36" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7988.91</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="1"/>
-        <v>53737329.830624998</v>
+        <v>433404.97222500003</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -7420,11 +7556,11 @@
       </c>
       <c r="E37" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8515.64</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="1"/>
-        <v>97161434.702499986</v>
+        <v>1799380.7880999995</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -7439,11 +7575,11 @@
       </c>
       <c r="E38" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6935.4500000000007</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="1"/>
-        <v>46082713.980624989</v>
+        <v>21616.350625000428</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -7458,11 +7594,11 @@
       </c>
       <c r="E39" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5355.26</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="1"/>
-        <v>21428566.809999995</v>
+        <v>527308.34560000116</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -7477,11 +7613,11 @@
       </c>
       <c r="E40" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6935.4500000000007</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" si="1"/>
-        <v>48579506.009999998</v>
+        <v>1186.8024999999247</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -7496,11 +7632,11 @@
       </c>
       <c r="E41" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" si="1"/>
-        <v>65321956.839999996</v>
+        <v>2800535.3103999984</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -7515,11 +7651,11 @@
       </c>
       <c r="E42" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" si="1"/>
-        <v>38525607.609999992</v>
+        <v>40731.31240000025</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -7534,11 +7670,11 @@
       </c>
       <c r="E43" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6935.4500000000007</v>
       </c>
       <c r="F43" s="14">
         <f t="shared" si="1"/>
-        <v>30243125.390625</v>
+        <v>2062311.405625002</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -7553,11 +7689,11 @@
       </c>
       <c r="E44" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8515.64</v>
       </c>
       <c r="F44" s="14">
         <f t="shared" si="1"/>
-        <v>72618092.640625</v>
+        <v>35.820225000006964</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -7572,11 +7708,11 @@
       </c>
       <c r="E45" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4828.5300000000007</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="1"/>
-        <v>26738206.809999995</v>
+        <v>117217.2168999993</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -7591,11 +7727,11 @@
       </c>
       <c r="E46" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6408.72</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" si="1"/>
-        <v>38880524.930624992</v>
+        <v>30031.157025000339</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -7610,11 +7746,11 @@
       </c>
       <c r="E47" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10622.560000000001</v>
       </c>
       <c r="F47" s="14">
         <f t="shared" si="1"/>
-        <v>131336757.05062497</v>
+        <v>701682.65222499531</v>
       </c>
     </row>
   </sheetData>
@@ -7635,10 +7771,273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F01EA78-4A1D-46D3-8A39-B0E3A19901A4}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0.77155421594394791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0.59529590814088018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0.57647246200789792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="38">
+        <v>1252.6845021143974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="38">
+        <v>2</v>
+      </c>
+      <c r="C12" s="38">
+        <v>99253805.356526792</v>
+      </c>
+      <c r="D12" s="38">
+        <v>49626902.678263396</v>
+      </c>
+      <c r="E12" s="38">
+        <v>31.625235035884671</v>
+      </c>
+      <c r="F12" s="38">
+        <v>3.5765006001357126E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="38">
+        <v>43</v>
+      </c>
+      <c r="C13" s="38">
+        <v>67476393.859016627</v>
+      </c>
+      <c r="D13" s="38">
+        <v>1569218.461837596</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="39">
+        <v>45</v>
+      </c>
+      <c r="C14" s="39">
+        <v>166730199.21554342</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="38">
+        <v>4718.6360750882241</v>
+      </c>
+      <c r="C17" s="38">
+        <v>398.27221119405743</v>
+      </c>
+      <c r="D17" s="38">
+        <v>11.847766282616883</v>
+      </c>
+      <c r="E17" s="38">
+        <v>3.943064973204034E-15</v>
+      </c>
+      <c r="F17" s="38">
+        <v>3915.4436136039517</v>
+      </c>
+      <c r="G17" s="38">
+        <v>5521.8285365724969</v>
+      </c>
+      <c r="H17" s="38">
+        <v>3915.4436136039517</v>
+      </c>
+      <c r="I17" s="38">
+        <v>5521.8285365724969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="38">
+        <v>195.14483037245907</v>
+      </c>
+      <c r="C18" s="38">
+        <v>24.603913552386313</v>
+      </c>
+      <c r="D18" s="38">
+        <v>7.9314548865146755</v>
+      </c>
+      <c r="E18" s="38">
+        <v>5.929581093240784E-10</v>
+      </c>
+      <c r="F18" s="38">
+        <v>145.52630984088583</v>
+      </c>
+      <c r="G18" s="38">
+        <v>244.76335090403231</v>
+      </c>
+      <c r="H18" s="38">
+        <v>145.52630984088583</v>
+      </c>
+      <c r="I18" s="38">
+        <v>244.76335090403231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="39">
+        <v>51.223802448224426</v>
+      </c>
+      <c r="C19" s="39">
+        <v>50.185128676669748</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1.0206968438448487</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0.31310659350247327</v>
+      </c>
+      <c r="F19" s="39">
+        <v>-49.984155071260069</v>
+      </c>
+      <c r="G19" s="39">
+        <v>152.43175996770893</v>
+      </c>
+      <c r="H19" s="39">
+        <v>-49.984155071260069</v>
+      </c>
+      <c r="I19" s="39">
+        <v>152.43175996770893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -8510,12 +8909,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23B05E9-7722-E540-8D0B-F40FCE742A69}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="B1:E1048576 G1:G1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2 Data Analytics/2 Regressao Linear Multipla/base_regressao_salarios.xlsx
+++ b/2 Data Analytics/2 Regressao Linear Multipla/base_regressao_salarios.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_\Desktop\Modal_DS\Curso-Data-Analytics---Preditiva.ai\2 Data Analytics\2 Regressao Linear Multipla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774AB93-3A71-4321-AB2F-82601E3B784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A8F1B-3892-48EB-81D4-FEE3076E87D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados1" sheetId="8" r:id="rId1"/>
     <sheet name="Equação da Reta" sheetId="7" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="11" r:id="rId3"/>
-    <sheet name="Dados2" sheetId="1" r:id="rId4"/>
-    <sheet name="Dados3" sheetId="10" r:id="rId5"/>
+    <sheet name="Planilha3" sheetId="13" r:id="rId4"/>
+    <sheet name="Dados2" sheetId="1" r:id="rId5"/>
+    <sheet name="Planilha4" sheetId="14" r:id="rId6"/>
+    <sheet name="Dados3" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dados2!$B$1:$F$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Dados3!$A$1:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Dados2!$B$1:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Dados3!$A$1:$E$47</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Equação da Reta'!$J$6,'Equação da Reta'!$J$10</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
   <si>
     <t>Salario</t>
   </si>
@@ -190,14 +192,19 @@
   <si>
     <t>Superior 95,0%</t>
   </si>
+  <si>
+    <t>p valor &gt; 5%, aceita H0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -237,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +441,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,6 +526,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3834,16 +3864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>692150</xdr:rowOff>
+      <xdr:rowOff>572407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6844,12 +6874,12 @@
         <f t="shared" ref="F3:F47" si="1">(D3-E3)*(D3-E3)</f>
         <v>77.352025000017278</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
@@ -6869,10 +6899,10 @@
         <f t="shared" si="1"/>
         <v>1576167.257025002</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
@@ -6911,14 +6941,14 @@
         <f t="shared" si="1"/>
         <v>589002.52622499887</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="16">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19">
         <v>4301.8</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
@@ -6938,10 +6968,10 @@
         <f t="shared" si="1"/>
         <v>383.18062499995727</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="21"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
@@ -6961,10 +6991,10 @@
         <f t="shared" si="1"/>
         <v>1523323.692899999</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
@@ -7003,14 +7033,14 @@
         <f t="shared" si="1"/>
         <v>10767389.076899994</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="16">
+      <c r="I10" s="36"/>
+      <c r="J10" s="19">
         <v>526.73</v>
       </c>
-      <c r="K10" s="18"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
@@ -7030,10 +7060,10 @@
         <f t="shared" si="1"/>
         <v>390306.31502499874</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="21"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
@@ -7053,10 +7083,10 @@
         <f t="shared" si="1"/>
         <v>1108.5570250000653</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="24"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
@@ -7152,13 +7182,13 @@
         <f t="shared" si="1"/>
         <v>1827403.7942249964</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
@@ -7178,11 +7208,11 @@
         <f t="shared" si="1"/>
         <v>495770.89210000081</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
@@ -7221,14 +7251,14 @@
         <f t="shared" si="1"/>
         <v>857.02562499997873</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="19">
         <f>SUM($F$2:$F$47)</f>
         <v>66072646.651699983</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
@@ -7248,11 +7278,11 @@
         <f t="shared" si="1"/>
         <v>1785817.9590250007</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
@@ -7272,11 +7302,11 @@
         <f t="shared" si="1"/>
         <v>365.57440000003061</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
@@ -7774,7 +7804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F01EA78-4A1D-46D3-8A39-B0E3A19901A4}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -7795,48 +7825,48 @@
     </row>
     <row r="2" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4">
         <v>0.77155421594394791</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5">
         <v>0.59529590814088018</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6">
         <v>0.57647246200789792</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7">
         <v>1252.6845021143974</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="15">
         <v>46</v>
       </c>
     </row>
@@ -7846,185 +7876,183 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12">
         <v>99253805.356526792</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12">
         <v>49626902.678263396</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12">
         <v>31.625235035884671</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12">
         <v>3.5765006001357126E-9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13">
         <v>43</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13">
         <v>67476393.859016627</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13">
         <v>1569218.461837596</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="15">
         <v>45</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="15">
         <v>166730199.21554342</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17">
         <v>4718.6360750882241</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17">
         <v>398.27221119405743</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17">
         <v>11.847766282616883</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17">
         <v>3.943064973204034E-15</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17">
         <v>3915.4436136039517</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17">
         <v>5521.8285365724969</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17">
         <v>3915.4436136039517</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17">
         <v>5521.8285365724969</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18">
         <v>195.14483037245907</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18">
         <v>24.603913552386313</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18">
         <v>7.9314548865146755</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18">
         <v>5.929581093240784E-10</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18">
         <v>145.52630984088583</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18">
         <v>244.76335090403231</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18">
         <v>145.52630984088583</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18">
         <v>244.76335090403231</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="15">
         <v>51.223802448224426</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="15">
         <v>50.185128676669748</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="15">
         <v>1.0206968438448487</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="15">
         <v>0.31310659350247327</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="15">
         <v>-49.984155071260069</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="15">
         <v>152.43175996770893</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="15">
         <v>-49.984155071260069</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="15">
         <v>152.43175996770893</v>
       </c>
     </row>
@@ -8034,11 +8062,309 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F0AC7F-59EC-4622-AE14-5A8FEE11156C}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0.86751855500366049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="41">
+        <v>0.75258844327563912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="50">
+        <v>0.73491618922389912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="41">
+        <v>991.04295881229996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="41">
+        <v>3</v>
+      </c>
+      <c r="C12" s="41">
+        <v>125479221.07466301</v>
+      </c>
+      <c r="D12" s="41">
+        <v>41826407.024887674</v>
+      </c>
+      <c r="E12" s="47">
+        <v>42.585877334732935</v>
+      </c>
+      <c r="F12" s="41">
+        <v>8.4044180234139988E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="41">
+        <v>42</v>
+      </c>
+      <c r="C13" s="41">
+        <v>41250978.140880398</v>
+      </c>
+      <c r="D13" s="41">
+        <v>982166.14621143811</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="42">
+        <v>45</v>
+      </c>
+      <c r="C14" s="42">
+        <v>166730199.21554342</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="41">
+        <v>3762.4736986550784</v>
+      </c>
+      <c r="C17" s="41">
+        <v>365.40297203195098</v>
+      </c>
+      <c r="D17" s="41">
+        <v>10.296779136011205</v>
+      </c>
+      <c r="E17" s="47">
+        <v>4.652068709343559E-13</v>
+      </c>
+      <c r="F17" s="41">
+        <v>3025.0606466419176</v>
+      </c>
+      <c r="G17" s="41">
+        <v>4499.8867506682391</v>
+      </c>
+      <c r="H17" s="41">
+        <v>3025.0606466419176</v>
+      </c>
+      <c r="I17" s="41">
+        <v>4499.8867506682391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="41">
+        <v>338.67067709172449</v>
+      </c>
+      <c r="C18" s="41">
+        <v>65.540369530595655</v>
+      </c>
+      <c r="D18" s="41">
+        <v>5.167359896157218</v>
+      </c>
+      <c r="E18" s="47">
+        <v>6.1729339966091174E-6</v>
+      </c>
+      <c r="F18" s="41">
+        <v>206.40485654606979</v>
+      </c>
+      <c r="G18" s="41">
+        <v>470.93649763737915</v>
+      </c>
+      <c r="H18" s="41">
+        <v>206.40485654606979</v>
+      </c>
+      <c r="I18" s="41">
+        <v>470.93649763737915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="41">
+        <v>118.48231969076541</v>
+      </c>
+      <c r="C19" s="41">
+        <v>24.474304231919294</v>
+      </c>
+      <c r="D19" s="41">
+        <v>4.8410904174444811</v>
+      </c>
+      <c r="E19" s="47">
+        <v>1.7804335271074013E-5</v>
+      </c>
+      <c r="F19" s="41">
+        <v>69.091174131117015</v>
+      </c>
+      <c r="G19" s="41">
+        <v>167.8734652504138</v>
+      </c>
+      <c r="H19" s="41">
+        <v>69.091174131117015</v>
+      </c>
+      <c r="I19" s="41">
+        <v>167.8734652504138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="42">
+        <v>58.24217097349505</v>
+      </c>
+      <c r="C20" s="42">
+        <v>39.726452816283164</v>
+      </c>
+      <c r="D20" s="42">
+        <v>1.4660803279577639</v>
+      </c>
+      <c r="E20" s="49">
+        <v>0.15007391499915554</v>
+      </c>
+      <c r="F20" s="42">
+        <v>-21.929056572926328</v>
+      </c>
+      <c r="G20" s="42">
+        <v>138.41339851991643</v>
+      </c>
+      <c r="H20" s="42">
+        <v>-21.929056572926328</v>
+      </c>
+      <c r="I20" s="42">
+        <v>138.41339851991643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8909,12 +9235,334 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E9459B-4C7D-4705-A04C-6DBA9BC942C9}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0.93195031018014607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="41">
+        <v>0.86853138064487045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="50">
+        <v>0.8557051738785163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="41">
+        <v>731.18328915087568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="41">
+        <v>4</v>
+      </c>
+      <c r="C12" s="41">
+        <v>144810410.11987022</v>
+      </c>
+      <c r="D12" s="41">
+        <v>36202602.529967554</v>
+      </c>
+      <c r="E12" s="41">
+        <v>67.715373412131029</v>
+      </c>
+      <c r="F12" s="41">
+        <v>1.622273100955148E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="41">
+        <v>41</v>
+      </c>
+      <c r="C13" s="41">
+        <v>21919789.095673215</v>
+      </c>
+      <c r="D13" s="41">
+        <v>534629.00233349309</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="42">
+        <v>45</v>
+      </c>
+      <c r="C14" s="42">
+        <v>166730199.21554342</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="41">
+        <v>4423.0263560747117</v>
+      </c>
+      <c r="C17" s="41">
+        <v>291.11291060040418</v>
+      </c>
+      <c r="D17" s="41">
+        <v>15.193508068578842</v>
+      </c>
+      <c r="E17" s="51">
+        <v>1.9283308143648445E-18</v>
+      </c>
+      <c r="F17" s="41">
+        <v>3835.1119060927576</v>
+      </c>
+      <c r="G17" s="41">
+        <v>5010.9408060566657</v>
+      </c>
+      <c r="H17" s="41">
+        <v>3835.1119060927576</v>
+      </c>
+      <c r="I17" s="41">
+        <v>5010.9408060566657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="41">
+        <v>254.66886220906625</v>
+      </c>
+      <c r="C18" s="41">
+        <v>50.33260355651128</v>
+      </c>
+      <c r="D18" s="41">
+        <v>5.0597196293081685</v>
+      </c>
+      <c r="E18" s="51">
+        <v>9.2536955658990822E-6</v>
+      </c>
+      <c r="F18" s="41">
+        <v>153.02010717770838</v>
+      </c>
+      <c r="G18" s="41">
+        <v>356.31761724042411</v>
+      </c>
+      <c r="H18" s="41">
+        <v>153.02010717770838</v>
+      </c>
+      <c r="I18" s="41">
+        <v>356.31761724042411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="41">
+        <v>61.623683123932828</v>
+      </c>
+      <c r="C19" s="41">
+        <v>20.382914359122637</v>
+      </c>
+      <c r="D19" s="41">
+        <v>3.0233008900590486</v>
+      </c>
+      <c r="E19" s="51">
+        <v>4.2987781554829057E-3</v>
+      </c>
+      <c r="F19" s="41">
+        <v>20.459552478686824</v>
+      </c>
+      <c r="G19" s="41">
+        <v>102.78781376917883</v>
+      </c>
+      <c r="H19" s="41">
+        <v>20.459552478686824</v>
+      </c>
+      <c r="I19" s="41">
+        <v>102.78781376917883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="41">
+        <v>5.9672292298664242</v>
+      </c>
+      <c r="C20" s="41">
+        <v>30.571926543883407</v>
+      </c>
+      <c r="D20" s="41">
+        <v>0.19518656180535346</v>
+      </c>
+      <c r="E20" s="51">
+        <v>0.8462109714194348</v>
+      </c>
+      <c r="F20" s="41">
+        <v>-55.774028970830351</v>
+      </c>
+      <c r="G20" s="41">
+        <v>67.708487430563196</v>
+      </c>
+      <c r="H20" s="41">
+        <v>-55.774028970830351</v>
+      </c>
+      <c r="I20" s="41">
+        <v>67.708487430563196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="42">
+        <v>1948.3671889465008</v>
+      </c>
+      <c r="C21" s="42">
+        <v>324.01698800966852</v>
+      </c>
+      <c r="D21" s="42">
+        <v>6.013163695257739</v>
+      </c>
+      <c r="E21" s="52">
+        <v>4.1440144714027412E-7</v>
+      </c>
+      <c r="F21" s="42">
+        <v>1294.0016065419629</v>
+      </c>
+      <c r="G21" s="42">
+        <v>2602.7327713510385</v>
+      </c>
+      <c r="H21" s="42">
+        <v>1294.0016065419629</v>
+      </c>
+      <c r="I21" s="42">
+        <v>2602.7327713510385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23B05E9-7722-E540-8D0B-F40FCE742A69}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,11 +9572,11 @@
     <col min="3" max="3" width="14.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -8945,13 +9593,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>29</v>
       </c>
@@ -8967,14 +9615,14 @@
       <c r="E2" s="4">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -8990,14 +9638,14 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38</v>
       </c>
@@ -9013,14 +9661,14 @@
       <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>26</v>
       </c>
@@ -9036,14 +9684,14 @@
       <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -9059,14 +9707,14 @@
       <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -9082,14 +9730,14 @@
       <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44</v>
       </c>
@@ -9105,14 +9753,14 @@
       <c r="E8" s="4">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>34</v>
       </c>
@@ -9128,14 +9776,14 @@
       <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42</v>
       </c>
@@ -9151,14 +9799,14 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -9174,14 +9822,14 @@
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>27</v>
       </c>
@@ -9197,14 +9845,14 @@
       <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -9220,14 +9868,14 @@
       <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>32</v>
       </c>
@@ -9243,14 +9891,14 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -9266,14 +9914,14 @@
       <c r="E15" s="4">
         <v>7</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -9289,14 +9937,14 @@
       <c r="E16" s="4">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -9312,14 +9960,14 @@
       <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -9335,14 +9983,14 @@
       <c r="E18" s="4">
         <v>6</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41</v>
       </c>
@@ -9358,14 +10006,14 @@
       <c r="E19" s="4">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -9381,14 +10029,14 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45</v>
       </c>
@@ -9404,14 +10052,14 @@
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -9427,14 +10075,14 @@
       <c r="E22" s="4">
         <v>6</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -9450,14 +10098,14 @@
       <c r="E23" s="4">
         <v>6</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -9473,14 +10121,14 @@
       <c r="E24" s="4">
         <v>5</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -9496,14 +10144,14 @@
       <c r="E25" s="4">
         <v>3</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>28</v>
       </c>
@@ -9519,14 +10167,14 @@
       <c r="E26" s="4">
         <v>5</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -9542,14 +10190,14 @@
       <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37</v>
       </c>
@@ -9565,14 +10213,14 @@
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -9588,14 +10236,14 @@
       <c r="E29" s="4">
         <v>4</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>33</v>
       </c>
@@ -9611,14 +10259,14 @@
       <c r="E30" s="4">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -9634,14 +10282,14 @@
       <c r="E31" s="4">
         <v>5</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39</v>
       </c>
@@ -9657,14 +10305,14 @@
       <c r="E32" s="4">
         <v>4</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9680,14 +10328,14 @@
       <c r="E33" s="4">
         <v>2</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -9703,14 +10351,14 @@
       <c r="E34" s="4">
         <v>3</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -9726,14 +10374,14 @@
       <c r="E35" s="4">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40</v>
       </c>
@@ -9749,14 +10397,14 @@
       <c r="E36" s="4">
         <v>16</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -9772,14 +10420,14 @@
       <c r="E37" s="4">
         <v>3</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>18</v>
       </c>
@@ -9795,14 +10443,14 @@
       <c r="E38" s="4">
         <v>4</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43</v>
       </c>
@@ -9818,14 +10466,14 @@
       <c r="E39" s="4">
         <v>3</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>22</v>
       </c>
@@ -9841,14 +10489,14 @@
       <c r="E40" s="4">
         <v>6</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -9864,14 +10512,14 @@
       <c r="E41" s="4">
         <v>3</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>12</v>
       </c>
@@ -9887,14 +10535,14 @@
       <c r="E42" s="4">
         <v>5</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>25</v>
       </c>
@@ -9910,14 +10558,14 @@
       <c r="E43" s="4">
         <v>6</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>36</v>
       </c>
@@ -9933,14 +10581,14 @@
       <c r="E44" s="4">
         <v>19</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -9956,14 +10604,14 @@
       <c r="E45" s="4">
         <v>6</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>16</v>
       </c>
@@ -9979,14 +10627,14 @@
       <c r="E46" s="4">
         <v>4</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>24</v>
       </c>
@@ -10002,11 +10650,11 @@
       <c r="E47" s="4">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
